--- a/図書館貸出アプリ/ふつうのEXCEL表の場合.xlsx
+++ b/図書館貸出アプリ/ふつうのEXCEL表の場合.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LaLa\09_MySQL\work\図書館貸出アプリ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755A1F44-4C97-4EC0-B7AF-15CA6B75D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1290" yWindow="0" windowWidth="13755" windowHeight="10530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,39 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">貸出番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">貸出日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返却予定日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">著者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">浦島太郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いやいやえん</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+  <si>
+    <t>貸出番号</t>
+  </si>
+  <si>
+    <t>会員番号</t>
+  </si>
+  <si>
+    <t>会員名</t>
+  </si>
+  <si>
+    <t>貸出日</t>
+  </si>
+  <si>
+    <t>返却予定日</t>
+  </si>
+  <si>
+    <t>書籍番号</t>
+  </si>
+  <si>
+    <t>書籍名</t>
+  </si>
+  <si>
+    <t>著者</t>
+  </si>
+  <si>
+    <t>浦島太郎</t>
+  </si>
+  <si>
+    <t>bk001</t>
+  </si>
+  <si>
+    <t>いやいやえん</t>
   </si>
   <si>
     <r>
@@ -63,7 +68,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">中川李枝子</t>
+      <t>中川李枝子</t>
     </r>
     <r>
       <rPr>
@@ -73,7 +78,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -83,23 +88,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">大村百合子</t>
+      <t>大村百合子</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">bk002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">わたしとあそんで</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マリー・ホール・エッツ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エルマーの冒険</t>
+    <t>bk002</t>
+  </si>
+  <si>
+    <t>わたしとあそんで</t>
+  </si>
+  <si>
+    <t>マリー・ホール・エッツ</t>
+  </si>
+  <si>
+    <t>bk003</t>
+  </si>
+  <si>
+    <t>エルマーの冒険</t>
   </si>
   <si>
     <r>
@@ -110,7 +115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ルース・スタイル・がネット</t>
+      <t>ルース・スタイル・がネット</t>
     </r>
     <r>
       <rPr>
@@ -131,26 +136,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ルース・クリスマン・ガネット</t>
+      <t>ルース・クリスマン・ガネット</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">金太郎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ゲド戦記</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ル・グウィン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bk005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">けんはへっちゃら</t>
+    <t>金太郎</t>
+  </si>
+  <si>
+    <t>bk004</t>
+  </si>
+  <si>
+    <t>ゲド戦記</t>
+  </si>
+  <si>
+    <t>ル・グウィン</t>
+  </si>
+  <si>
+    <t>bk005</t>
+  </si>
+  <si>
+    <t>けんはへっちゃら</t>
   </si>
   <si>
     <r>
@@ -161,7 +166,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">谷川俊太郎</t>
+      <t>谷川俊太郎</t>
     </r>
     <r>
       <rPr>
@@ -171,7 +176,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -181,22 +186,48 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">和田真</t>
+      <t>和田真</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">かぐや姫</t>
+    <t>かぐや姫</t>
+  </si>
+  <si>
+    <t>中川李枝子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルース・スタイル・がネット</t>
+  </si>
+  <si>
+    <t>谷川俊太郎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>members</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>books</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>loans</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>loan_book</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,29 +236,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,98 +258,137 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999"/>
+        <fgColor theme="7" tint="0.59987182226020086"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -386,60 +447,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -471,7 +548,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -495,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -555,253 +632,692 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="10.49"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="16384" max="16384" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5" t="n">
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="3">
         <v>123456</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="1">
         <v>45565</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="1">
         <v>45580</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="33.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="n">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="n">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10">
         <v>45553</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="10">
         <v>45567</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="n">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="3">
         <v>123457</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="1">
         <v>45565</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="1">
         <v>45580</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="n">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="7">
         <v>123458</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="10">
         <v>45538</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="10">
         <v>45552</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1"/>
+    <row r="11" spans="1:10" s="13" customFormat="1"/>
+    <row r="12" spans="1:10" s="13" customFormat="1"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <v>123456</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45565</v>
+      </c>
+      <c r="F15" s="15">
+        <v>45580</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <v>123456</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15">
+        <v>45565</v>
+      </c>
+      <c r="F16" s="15">
+        <v>45580</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12">
+        <v>123456</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10">
+        <v>45553</v>
+      </c>
+      <c r="F17" s="10">
+        <v>45567</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75">
+      <c r="A18" s="5"/>
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>123457</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45565</v>
+      </c>
+      <c r="F18" s="15">
+        <v>45580</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>123457</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="15">
+        <v>45565</v>
+      </c>
+      <c r="F19" s="15">
+        <v>45580</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7">
+        <v>123458</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="10">
+        <v>45538</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45552</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="16" customFormat="1">
+      <c r="B25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="16" customFormat="1" ht="18.75">
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <v>123456</v>
+      </c>
+      <c r="D26" s="21">
+        <v>45565</v>
+      </c>
+      <c r="E26" s="21">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="16" customFormat="1" ht="18.75">
+      <c r="B27" s="19">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>123456</v>
+      </c>
+      <c r="D27" s="22">
+        <v>45553</v>
+      </c>
+      <c r="E27" s="22">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="16" customFormat="1" ht="18.75">
+      <c r="B28" s="19">
+        <v>3</v>
+      </c>
+      <c r="C28" s="20">
+        <v>123457</v>
+      </c>
+      <c r="D28" s="21">
+        <v>45565</v>
+      </c>
+      <c r="E28" s="21">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="16" customFormat="1" ht="18.75">
+      <c r="B29" s="19">
+        <v>4</v>
+      </c>
+      <c r="C29" s="18">
+        <v>123458</v>
+      </c>
+      <c r="D29" s="22">
+        <v>45538</v>
+      </c>
+      <c r="E29" s="22">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="16" customFormat="1">
+      <c r="G30" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="16" customFormat="1">
+      <c r="G31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="16" customFormat="1" ht="18.75">
+      <c r="G32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G33" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G34" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" s="16" customFormat="1">
+      <c r="B37" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" s="16" customFormat="1">
+      <c r="B38" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="B39" s="20">
+        <v>123456</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="B40" s="20">
+        <v>123457</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" s="16" customFormat="1">
+      <c r="B41" s="18">
+        <v>123458</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="16" customFormat="1"/>
+    <row r="43" spans="2:9" s="16" customFormat="1">
+      <c r="G43" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="16" customFormat="1">
+      <c r="G44" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G45" s="19">
+        <v>1</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G46" s="19">
+        <v>1</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G47" s="19">
+        <v>2</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" s="16" customFormat="1" ht="18.75">
+      <c r="G48" s="19">
+        <v>3</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" s="16" customFormat="1" ht="18.75">
+      <c r="G49" s="19">
+        <v>3</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" s="16" customFormat="1" ht="18.75">
+      <c r="G50" s="19">
+        <v>4</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" s="16" customFormat="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/図書館貸出アプリ/ふつうのEXCEL表の場合.xlsx
+++ b/図書館貸出アプリ/ふつうのEXCEL表の場合.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LaLa\09_MySQL\work\図書館貸出アプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755A1F44-4C97-4EC0-B7AF-15CA6B75D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790B512C-5FBF-494D-B721-D4661348954E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="0" windowWidth="13755" windowHeight="10530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="405" windowWidth="13755" windowHeight="10530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
@@ -304,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,7 +326,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,25 +338,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,26 +353,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -679,169 +682,169 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
       <c r="A3" s="5"/>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>123456</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="12">
         <v>45565</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="12">
         <v>45580</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="32.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1">
         <v>45553</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <v>45567</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
       <c r="A6" s="5"/>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>123457</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <v>45565</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="12">
         <v>45580</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="18.75">
       <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="9" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="5"/>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>123458</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="1">
         <v>45538</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="1">
         <v>45552</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="5"/>
@@ -858,463 +861,678 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1"/>
-    <row r="11" spans="1:10" s="13" customFormat="1"/>
-    <row r="12" spans="1:10" s="13" customFormat="1"/>
     <row r="14" spans="1:10">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="16">
         <v>123456</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="17">
         <v>45565</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="17">
         <v>45580</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="5"/>
-      <c r="B16" s="12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="16">
         <v>123456</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="17">
         <v>45565</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="17">
         <v>45580</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="18.75">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8">
+      <c r="A17" s="13"/>
+      <c r="B17" s="18">
         <v>2</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="16">
         <v>123456</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="17">
         <v>45553</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="17">
         <v>45567</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="18.75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16">
         <v>3</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="16">
         <v>123457</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="17">
         <v>45565</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <v>45580</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" ht="18.75">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="16">
         <v>3</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="16">
         <v>123457</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="17">
         <v>45565</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="17">
         <v>45580</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="18.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18">
         <v>4</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="15">
         <v>123458</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="17">
         <v>45538</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="17">
         <v>45552</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" t="s">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="24" spans="1:10" s="20" customFormat="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="16" customFormat="1">
-      <c r="B25" s="17" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" s="20" customFormat="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="16" customFormat="1" ht="18.75">
-      <c r="B26" s="19">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A26" s="8"/>
+      <c r="B26" s="23">
         <v>1</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="24">
         <v>123456</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="25">
         <v>45565</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="25">
         <v>45580</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="16" customFormat="1" ht="18.75">
-      <c r="B27" s="19">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A27" s="8"/>
+      <c r="B27" s="23">
         <v>2</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="24">
         <v>123456</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="25">
         <v>45553</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="25">
         <v>45567</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="16" customFormat="1" ht="18.75">
-      <c r="B28" s="19">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A28" s="8"/>
+      <c r="B28" s="23">
         <v>3</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="24">
         <v>123457</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="25">
         <v>45565</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="25">
         <v>45580</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="16" customFormat="1" ht="18.75">
-      <c r="B29" s="19">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A29" s="8"/>
+      <c r="B29" s="23">
         <v>4</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="22">
         <v>123458</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="25">
         <v>45538</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="25">
         <v>45552</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="16" customFormat="1">
-      <c r="G30" s="16" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" s="20" customFormat="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="16" customFormat="1">
-      <c r="G31" s="18" t="s">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" s="20" customFormat="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="16" customFormat="1" ht="18.75">
-      <c r="G32" s="23" t="s">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G33" s="23" t="s">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G34" s="23" t="s">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G35" s="23" t="s">
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G36" s="23" t="s">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" s="16" customFormat="1">
-      <c r="B37" s="16" t="s">
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" s="20" customFormat="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" s="16" customFormat="1">
-      <c r="B38" s="18" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" s="20" customFormat="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="B39" s="20">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A39" s="8"/>
+      <c r="B39" s="24">
         <v>123456</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="B40" s="20">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A40" s="8"/>
+      <c r="B40" s="24">
         <v>123457</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" s="16" customFormat="1">
-      <c r="B41" s="18">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" s="20" customFormat="1">
+      <c r="A41" s="8"/>
+      <c r="B41" s="22">
         <v>123458</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" s="16" customFormat="1"/>
-    <row r="43" spans="2:9" s="16" customFormat="1">
-      <c r="G43" s="16" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" s="20" customFormat="1">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" s="20" customFormat="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" s="16" customFormat="1">
-      <c r="G44" s="17" t="s">
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" s="20" customFormat="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G45" s="19">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="23">
         <v>1</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G46" s="19">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="23">
         <v>1</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G47" s="19">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="23">
         <v>2</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" s="16" customFormat="1" ht="18.75">
-      <c r="G48" s="19">
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="23">
         <v>3</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="7:8" s="16" customFormat="1" ht="18.75">
-      <c r="G49" s="19">
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="23">
         <v>3</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="7:8" s="16" customFormat="1" ht="18.75">
-      <c r="G50" s="19">
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10" s="20" customFormat="1" ht="18.75">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="23">
         <v>4</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="7:8" s="16" customFormat="1"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" s="20" customFormat="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
